--- a/xls/old/TreeRings.xlsx
+++ b/xls/old/TreeRings.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheitman2/Documents/BTSync/Grants/SPARC/SPARC Activities/Data Tables &amp; Schema/FINAL DB tables/March 2017 Final Tables/drive-download-20170328T141955Z-001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Salmon\2018 DBs - Paul Fixes Late Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23520" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -3762,30 +3759,30 @@
   <dimension ref="A1:P547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" style="6" customWidth="1"/>
     <col min="14" max="14" width="15" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
     <col min="16" max="16" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1085</v>
       </c>
@@ -3835,7 +3832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1084</v>
       </c>
@@ -3885,7 +3882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>1084</v>
       </c>
@@ -3935,7 +3932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>1084</v>
       </c>
@@ -3985,7 +3982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4035,7 +4032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4085,7 +4082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4135,7 +4132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4185,7 +4182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4285,7 +4282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4335,7 +4332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4385,7 +4382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4435,7 +4432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4485,7 +4482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4535,7 +4532,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4585,7 +4582,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4685,7 +4682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4735,7 +4732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4785,7 +4782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4835,7 +4832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4885,7 +4882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4935,7 +4932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>1084</v>
       </c>
@@ -4985,7 +4982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5035,7 +5032,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5085,7 +5082,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5135,7 +5132,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5185,7 +5182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5235,7 +5232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5335,7 +5332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5385,7 +5382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5435,7 +5432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5485,7 +5482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5535,7 +5532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5585,7 +5582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5635,7 +5632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5685,7 +5682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5735,7 +5732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5785,7 +5782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5835,7 +5832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5885,7 +5882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5935,7 +5932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>1084</v>
       </c>
@@ -5985,7 +5982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6035,7 +6032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6085,7 +6082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6135,7 +6132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6185,7 +6182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6235,7 +6232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6285,7 +6282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6335,7 +6332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6385,7 +6382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6435,7 +6432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6485,7 +6482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6535,7 +6532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6585,7 +6582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6635,7 +6632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6685,7 +6682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6735,7 +6732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6785,7 +6782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6835,7 +6832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6885,7 +6882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6935,7 +6932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>1084</v>
       </c>
@@ -6985,7 +6982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7035,7 +7032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7085,7 +7082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7135,7 +7132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7185,7 +7182,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7235,7 +7232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7285,7 +7282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7335,7 +7332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7385,7 +7382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7435,7 +7432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7485,7 +7482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7535,7 +7532,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7585,7 +7582,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7635,7 +7632,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7685,7 +7682,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7735,7 +7732,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7785,7 +7782,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7835,7 +7832,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7885,7 +7882,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7935,7 +7932,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>1084</v>
       </c>
@@ -7985,7 +7982,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8035,7 +8032,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8085,7 +8082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8135,7 +8132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8185,7 +8182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8235,7 +8232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8285,7 +8282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8335,7 +8332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8385,7 +8382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8435,7 +8432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8485,7 +8482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8535,7 +8532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8585,7 +8582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8635,7 +8632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8685,7 +8682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8735,7 +8732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8785,7 +8782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8835,7 +8832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8885,7 +8882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8935,7 +8932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>1084</v>
       </c>
@@ -8985,7 +8982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9035,7 +9032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9085,7 +9082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9135,7 +9132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9185,7 +9182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9235,7 +9232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9285,7 +9282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9335,7 +9332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9385,7 +9382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9435,7 +9432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9485,7 +9482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9535,7 +9532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9585,7 +9582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9635,7 +9632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9685,7 +9682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9735,7 +9732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9785,7 +9782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9835,7 +9832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9885,7 +9882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9935,7 +9932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>1084</v>
       </c>
@@ -9985,7 +9982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10035,7 +10032,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10085,7 +10082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10135,7 +10132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10185,7 +10182,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10235,7 +10232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10285,7 +10282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10335,7 +10332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10385,7 +10382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10435,7 +10432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10485,7 +10482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10535,7 +10532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10585,7 +10582,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10635,7 +10632,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10685,7 +10682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10735,7 +10732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10785,7 +10782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10835,7 +10832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10885,7 +10882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10935,7 +10932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>1084</v>
       </c>
@@ -10985,7 +10982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11035,7 +11032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11085,7 +11082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11135,7 +11132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11185,7 +11182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11235,7 +11232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11285,7 +11282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11335,7 +11332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11385,7 +11382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11435,7 +11432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11485,7 +11482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11535,7 +11532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11585,7 +11582,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11635,7 +11632,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11685,7 +11682,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11735,7 +11732,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11785,7 +11782,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11835,7 +11832,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11885,7 +11882,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11935,7 +11932,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>1084</v>
       </c>
@@ -11985,7 +11982,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12035,7 +12032,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12085,7 +12082,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12135,7 +12132,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12185,7 +12182,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12235,7 +12232,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12285,7 +12282,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12335,7 +12332,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12385,7 +12382,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12435,7 +12432,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12485,7 +12482,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12535,7 +12532,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12585,7 +12582,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12635,7 +12632,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12685,7 +12682,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12735,7 +12732,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12785,7 +12782,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12835,7 +12832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12885,7 +12882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12935,7 +12932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" s="8" t="s">
         <v>1084</v>
       </c>
@@ -12985,7 +12982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13035,7 +13032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13085,7 +13082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13135,7 +13132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13185,7 +13182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13235,7 +13232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13285,7 +13282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13335,7 +13332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13385,7 +13382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13435,7 +13432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13485,7 +13482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13535,7 +13532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13585,7 +13582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13635,7 +13632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13685,7 +13682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13735,7 +13732,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13785,7 +13782,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13835,7 +13832,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13885,7 +13882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13935,7 +13932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" s="8" t="s">
         <v>1084</v>
       </c>
@@ -13985,7 +13982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14035,7 +14032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14085,7 +14082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14135,7 +14132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14185,7 +14182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14235,7 +14232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14285,7 +14282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14335,7 +14332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14385,7 +14382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14435,7 +14432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14485,7 +14482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14535,7 +14532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14585,7 +14582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14635,7 +14632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14685,7 +14682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14735,7 +14732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14785,7 +14782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14835,7 +14832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14885,7 +14882,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14935,7 +14932,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" s="8" t="s">
         <v>1084</v>
       </c>
@@ -14985,7 +14982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15035,7 +15032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15085,7 +15082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15135,7 +15132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15185,7 +15182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15235,7 +15232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15285,7 +15282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15335,7 +15332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15385,7 +15382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15435,7 +15432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15485,7 +15482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15535,7 +15532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15585,7 +15582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15635,7 +15632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15685,7 +15682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15735,7 +15732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15785,7 +15782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15835,7 +15832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15885,7 +15882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15935,7 +15932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" s="8" t="s">
         <v>1084</v>
       </c>
@@ -15985,7 +15982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16035,7 +16032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16085,7 +16082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16135,7 +16132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16185,7 +16182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16235,7 +16232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16285,7 +16282,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16335,7 +16332,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16385,7 +16382,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16435,7 +16432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16485,7 +16482,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16535,7 +16532,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16585,7 +16582,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16635,7 +16632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16685,7 +16682,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16735,7 +16732,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16785,7 +16782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16835,7 +16832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16885,7 +16882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16935,7 +16932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" s="8" t="s">
         <v>1084</v>
       </c>
@@ -16985,7 +16982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17035,7 +17032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17085,7 +17082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17135,7 +17132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17185,7 +17182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17235,7 +17232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17285,7 +17282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17335,7 +17332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17385,7 +17382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17435,7 +17432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17485,7 +17482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17535,7 +17532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17585,7 +17582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17635,7 +17632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17685,7 +17682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17735,7 +17732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17785,7 +17782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17835,7 +17832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17885,7 +17882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17935,7 +17932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" s="8" t="s">
         <v>1084</v>
       </c>
@@ -17985,7 +17982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18035,7 +18032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18085,7 +18082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18135,7 +18132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18185,7 +18182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18235,7 +18232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18285,7 +18282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18335,7 +18332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18385,7 +18382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18435,7 +18432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18485,7 +18482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18535,7 +18532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18585,7 +18582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18635,7 +18632,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18685,7 +18682,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18735,7 +18732,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18785,7 +18782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18835,7 +18832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18885,7 +18882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18935,7 +18932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" s="8" t="s">
         <v>1084</v>
       </c>
@@ -18985,7 +18982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19035,7 +19032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19085,7 +19082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19135,7 +19132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19185,7 +19182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19235,7 +19232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19285,7 +19282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19335,7 +19332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19385,7 +19382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19435,7 +19432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19485,7 +19482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19535,7 +19532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19585,7 +19582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19635,7 +19632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19685,7 +19682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19735,7 +19732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19785,7 +19782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A321" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19835,7 +19832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19885,7 +19882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A323" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19935,7 +19932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A324" s="8" t="s">
         <v>1084</v>
       </c>
@@ -19985,7 +19982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A325" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20035,7 +20032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A326" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20085,7 +20082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A327" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20135,7 +20132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A328" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20185,7 +20182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A329" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20235,7 +20232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A330" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20285,7 +20282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A331" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20335,7 +20332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A332" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20385,7 +20382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A333" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20435,7 +20432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A334" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20485,7 +20482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A335" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20535,7 +20532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A336" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20585,7 +20582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A337" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20635,7 +20632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20685,7 +20682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A339" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20735,7 +20732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A340" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20785,7 +20782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A341" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20835,7 +20832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A342" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20885,7 +20882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A343" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20935,7 +20932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A344" s="8" t="s">
         <v>1084</v>
       </c>
@@ -20985,7 +20982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A345" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21035,7 +21032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A346" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21085,7 +21082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A347" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21135,7 +21132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A348" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21185,7 +21182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A349" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21235,7 +21232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A350" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21285,7 +21282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A351" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21335,7 +21332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A352" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21385,7 +21382,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A353" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21435,7 +21432,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21485,7 +21482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21535,7 +21532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A356" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21585,7 +21582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A357" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21635,7 +21632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A358" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21685,7 +21682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A359" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21735,7 +21732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A360" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21785,7 +21782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A361" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21835,7 +21832,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21885,7 +21882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A363" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21935,7 +21932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A364" s="8" t="s">
         <v>1084</v>
       </c>
@@ -21985,7 +21982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A365" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22035,7 +22032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22085,7 +22082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A367" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22135,7 +22132,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A368" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22185,7 +22182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A369" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22235,7 +22232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A370" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22285,7 +22282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22335,7 +22332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A372" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22385,7 +22382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A373" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22435,7 +22432,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A374" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22485,7 +22482,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A375" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22535,7 +22532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A376" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22585,7 +22582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A377" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22635,7 +22632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A378" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22685,7 +22682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A379" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22735,7 +22732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A380" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22785,7 +22782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A381" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22835,7 +22832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A382" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22885,7 +22882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A383" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22935,7 +22932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A384" s="8" t="s">
         <v>1084</v>
       </c>
@@ -22985,7 +22982,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A385" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23035,7 +23032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A386" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23085,7 +23082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A387" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23135,7 +23132,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A388" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23185,7 +23182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A389" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23235,7 +23232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A390" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23285,7 +23282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A391" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23335,7 +23332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A392" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23385,7 +23382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A393" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23435,7 +23432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A394" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23485,7 +23482,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A395" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23535,7 +23532,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A396" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23585,7 +23582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A397" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23635,7 +23632,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A398" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23685,7 +23682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A399" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23735,7 +23732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A400" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23785,7 +23782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A401" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23835,7 +23832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A402" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23885,7 +23882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A403" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23935,7 +23932,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A404" s="8" t="s">
         <v>1084</v>
       </c>
@@ -23985,7 +23982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A405" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24035,7 +24032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A406" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24085,7 +24082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A407" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24135,7 +24132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A408" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24185,7 +24182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A409" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24235,7 +24232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A410" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24285,7 +24282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A411" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24335,7 +24332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A412" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24385,7 +24382,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A413" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24435,7 +24432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A414" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24485,7 +24482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A415" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24535,7 +24532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A416" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24585,7 +24582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A417" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24635,7 +24632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A418" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24685,7 +24682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A419" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24735,7 +24732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A420" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24785,7 +24782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A421" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24835,7 +24832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A422" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24885,7 +24882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A423" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24935,7 +24932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A424" s="8" t="s">
         <v>1084</v>
       </c>
@@ -24985,7 +24982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A425" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25035,7 +25032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A426" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25085,7 +25082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A427" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25135,7 +25132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A428" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25185,7 +25182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A429" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25235,7 +25232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A430" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25285,7 +25282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A431" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25335,7 +25332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A432" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25385,7 +25382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A433" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25435,7 +25432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A434" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25485,7 +25482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A435" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25535,7 +25532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A436" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25585,7 +25582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A437" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25635,7 +25632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A438" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25685,7 +25682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A439" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25735,7 +25732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A440" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25785,7 +25782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A441" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25835,7 +25832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A442" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25885,7 +25882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A443" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25935,7 +25932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A444" s="8" t="s">
         <v>1084</v>
       </c>
@@ -25985,7 +25982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A445" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26035,7 +26032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A446" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26085,7 +26082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A447" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26135,7 +26132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A448" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26185,7 +26182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A449" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26235,7 +26232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A450" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26285,7 +26282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A451" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26335,7 +26332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A452" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26385,7 +26382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A453" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26435,7 +26432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A454" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26485,7 +26482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A455" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26535,7 +26532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A456" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26585,7 +26582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A457" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26635,7 +26632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A458" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26685,7 +26682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A459" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26735,7 +26732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A460" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26785,7 +26782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A461" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26835,7 +26832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A462" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26885,7 +26882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A463" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26935,7 +26932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A464" s="8" t="s">
         <v>1084</v>
       </c>
@@ -26985,7 +26982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A465" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27035,7 +27032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A466" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27085,7 +27082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A467" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27135,7 +27132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A468" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27185,7 +27182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A469" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27235,7 +27232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A470" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27285,7 +27282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A471" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27335,7 +27332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A472" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27385,7 +27382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A473" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27435,7 +27432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A474" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27485,7 +27482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A475" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27535,7 +27532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A476" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27585,7 +27582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A477" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27635,7 +27632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A478" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27685,7 +27682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A479" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27735,7 +27732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A480" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27785,7 +27782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A481" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27835,7 +27832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A482" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27885,7 +27882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A483" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27935,7 +27932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A484" s="8" t="s">
         <v>1084</v>
       </c>
@@ -27985,7 +27982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A485" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28035,7 +28032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A486" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28085,7 +28082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A487" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28135,7 +28132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A488" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28185,7 +28182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A489" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28235,7 +28232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A490" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28285,7 +28282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A491" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28335,7 +28332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A492" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28385,7 +28382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A493" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28435,7 +28432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A494" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28485,7 +28482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A495" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28535,7 +28532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A496" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28585,7 +28582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A497" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28635,7 +28632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A498" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28685,7 +28682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A499" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28735,7 +28732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A500" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28785,7 +28782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A501" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28835,7 +28832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A502" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28885,7 +28882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A503" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28935,7 +28932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A504" s="8" t="s">
         <v>1084</v>
       </c>
@@ -28985,7 +28982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A505" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29035,7 +29032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A506" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29085,7 +29082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A507" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29135,7 +29132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A508" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29185,7 +29182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A509" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29235,7 +29232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A510" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29285,7 +29282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A511" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29335,7 +29332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A512" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29385,7 +29382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A513" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29435,7 +29432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A514" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29485,7 +29482,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A515" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29535,7 +29532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A516" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29585,7 +29582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A517" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29635,7 +29632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A518" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29685,7 +29682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A519" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29735,7 +29732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A520" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29785,7 +29782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A521" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29835,7 +29832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A522" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29885,7 +29882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A523" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29935,7 +29932,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A524" s="8" t="s">
         <v>1084</v>
       </c>
@@ -29985,7 +29982,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A525" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30035,7 +30032,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A526" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30085,7 +30082,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A527" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30135,7 +30132,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A528" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30185,7 +30182,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A529" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30235,7 +30232,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A530" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30285,7 +30282,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A531" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30335,7 +30332,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A532" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30385,7 +30382,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A533" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30435,7 +30432,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A534" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30485,7 +30482,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A535" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30535,7 +30532,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A536" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30585,7 +30582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A537" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30635,7 +30632,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A538" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30685,7 +30682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A539" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30735,7 +30732,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A540" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30785,7 +30782,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A541" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30835,7 +30832,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A542" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30885,7 +30882,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A543" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30935,7 +30932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A544" s="8" t="s">
         <v>1084</v>
       </c>
@@ -30985,7 +30982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A545" s="8" t="s">
         <v>1084</v>
       </c>
@@ -31035,7 +31032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A546" s="8" t="s">
         <v>1084</v>
       </c>
@@ -31085,7 +31082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A547" s="8" t="s">
         <v>1084</v>
       </c>
@@ -31136,7 +31133,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P547"/>
   <sortState ref="A2:O547">
     <sortCondition ref="B2:B547"/>
   </sortState>
